--- a/data/profiles/xlsx/bluff/profile 32-5 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 32-5 graph.xlsx
@@ -16042,11 +16042,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66168260"/>
-        <c:axId val="12253810"/>
+        <c:axId val="35423082"/>
+        <c:axId val="54176803"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66168260"/>
+        <c:axId val="35423082"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16081,12 +16081,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12253810"/>
+        <c:crossAx val="54176803"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12253810"/>
+        <c:axId val="54176803"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16130,7 +16130,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66168260"/>
+        <c:crossAx val="35423082"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
